--- a/publication/table_feedcomp.xlsx
+++ b/publication/table_feedcomp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilaxeltellbuescher/Projekte/apo-sub-2/publication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3C56DF3-C683-744A-8731-B28C54A6FEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BB4234-44AA-4048-816D-E666D0399556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="24340" windowHeight="14880" activeTab="1" xr2:uid="{91E0B3E3-0DBF-2E43-9C20-0EB313F70F97}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="raw" sheetId="1" r:id="rId1"/>
     <sheet name="finished" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8415419D-0D8A-3643-97C5-E266EA7FAF34}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{8415419D-0D8A-3643-97C5-E266EA7FAF34}">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>Tacon</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>cv</t>
   </si>
 </sst>
 </file>
@@ -255,9 +258,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -585,12 +587,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
       <c r="G1" t="s">
         <v>15</v>
       </c>
@@ -874,90 +873,90 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -968,32 +967,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E217E2FB-709A-6A40-B82D-9073CBFCB64B}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1001,19 +1000,19 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
         <v>28</v>
@@ -1025,24 +1024,42 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1055,44 +1072,60 @@
         <v>2.1213203435595972E-2</v>
       </c>
       <c r="D4">
+        <f>C4/B4*100</f>
+        <v>0.14203684925072629</v>
+      </c>
+      <c r="F4">
         <f>raw!G4</f>
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <f>raw!H4</f>
         <v>2.4</v>
       </c>
-      <c r="F4">
+      <c r="H4">
+        <f>G4/F4*100</f>
+        <v>20</v>
+      </c>
+      <c r="I4">
         <v>67</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <f>raw!I4</f>
         <v>22</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <f>raw!J4</f>
         <v>17</v>
       </c>
-      <c r="I4">
+      <c r="L4">
+        <f>K4/J4*100</f>
+        <v>77.272727272727266</v>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <f>raw!K4</f>
         <v>12</v>
       </c>
-      <c r="L4">
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="R4">
         <f>raw!M4</f>
         <v>14</v>
       </c>
-      <c r="N4">
+      <c r="S4">
         <f>raw!N4</f>
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T4">
+        <f>S4/R4*100</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1105,33 +1138,45 @@
         <v>1.0040916292848974</v>
       </c>
       <c r="D5">
+        <f t="shared" ref="D5:D11" si="0">C5/B5*100</f>
+        <v>10.459287805051012</v>
+      </c>
+      <c r="F5">
         <f>raw!G5</f>
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <f>raw!H5</f>
         <v>1.7</v>
       </c>
-      <c r="F5">
+      <c r="H5">
+        <f>G5/F5*100</f>
+        <v>15.454545454545453</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <f>raw!I5</f>
         <v>20</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="R5">
         <f>raw!M5</f>
         <v>9</v>
       </c>
-      <c r="N5">
+      <c r="S5">
         <f>raw!N5</f>
         <v>2.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <f>S5/R5*100</f>
+        <v>31.111111111111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1144,33 +1189,45 @@
         <v>2.7930717856868625</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
+        <v>13.885517204508387</v>
+      </c>
+      <c r="F6">
         <f>raw!G6</f>
         <v>21</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <f>raw!H6</f>
         <v>10.1</v>
       </c>
-      <c r="F6">
+      <c r="H6">
+        <f>G6/F6*100</f>
+        <v>48.095238095238088</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <f>raw!I6</f>
         <v>15</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="R6">
         <f>raw!M6</f>
         <v>15</v>
       </c>
-      <c r="N6">
+      <c r="S6">
         <f>raw!N6</f>
         <v>8.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T6">
+        <f>S6/R6*100</f>
+        <v>56.000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1183,26 +1240,38 @@
         <v>0.12727922061357869</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
+        <v>5.8925565098879016</v>
+      </c>
+      <c r="F7">
         <f>raw!G7</f>
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <f>raw!H7</f>
         <v>0.9</v>
       </c>
-      <c r="F7">
+      <c r="H7">
+        <f>G7/F7*100</f>
+        <v>30</v>
+      </c>
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="R7">
         <f>raw!M7</f>
         <v>2</v>
       </c>
-      <c r="N7">
+      <c r="S7">
         <f>raw!N7</f>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T7">
+        <f>S7/R7*100</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1215,26 +1284,38 @@
         <v>24.748737341529164</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
+        <v>13.487050322359217</v>
+      </c>
+      <c r="F8">
         <f>raw!G8</f>
         <v>325</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <f>raw!H8</f>
         <v>330.9</v>
       </c>
-      <c r="F8">
+      <c r="H8">
+        <f>G8/F8*100</f>
+        <v>101.81538461538462</v>
+      </c>
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="M8">
+      <c r="R8">
         <f>raw!M8</f>
         <v>348</v>
       </c>
-      <c r="N8">
+      <c r="S8">
         <f>raw!N8</f>
         <v>297</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T8">
+        <f>S8/R8*100</f>
+        <v>85.34482758620689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1246,8 +1327,12 @@
         <f>STDEV(raw!D9:E9)</f>
         <v>4.2426406871192848</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>8.0049824285269526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1260,26 +1345,38 @@
         <v>1.4142135623730951</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
+        <v>9.4280904158206358</v>
+      </c>
+      <c r="F10">
         <f>raw!G10</f>
         <v>19</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <f>raw!H10</f>
         <v>16.100000000000001</v>
       </c>
-      <c r="F10">
+      <c r="H10">
+        <f>G10/F10*100</f>
+        <v>84.736842105263165</v>
+      </c>
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="M10">
+      <c r="R10">
         <f>raw!M10</f>
         <v>16</v>
       </c>
-      <c r="N10">
+      <c r="S10">
         <f>raw!N10</f>
         <v>2.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="T10">
+        <f>S10/R10*100</f>
+        <v>18.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1292,78 +1389,90 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
+        <v>7.8567420131838626</v>
+      </c>
+      <c r="F11">
         <f>raw!G11</f>
         <v>211</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <f>raw!H11</f>
         <v>110</v>
       </c>
-      <c r="F11">
+      <c r="H11">
+        <f>G11/F11*100</f>
+        <v>52.132701421800952</v>
+      </c>
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="M11">
+      <c r="R11">
         <f>raw!M11</f>
         <v>93</v>
       </c>
-      <c r="N11">
+      <c r="S11">
         <f>raw!N11</f>
         <v>35.799999999999997</v>
       </c>
+      <c r="T11">
+        <f>S11/R11*100</f>
+        <v>38.494623655913976</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+      <c r="A41" s="1"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
+      <c r="A51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/publication/table_feedcomp.xlsx
+++ b/publication/table_feedcomp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilaxeltellbuescher/Projekte/apo-sub-2/publication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BB4234-44AA-4048-816D-E666D0399556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1458782-2171-1C46-B817-214FD2F040E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="24340" windowHeight="14880" activeTab="1" xr2:uid="{91E0B3E3-0DBF-2E43-9C20-0EB313F70F97}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Tacon</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Commercial aquaponics</t>
-  </si>
-  <si>
-    <t>Commercial pond</t>
   </si>
   <si>
     <t>n</t>
@@ -209,6 +206,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -258,9 +258,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -967,15 +968,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E217E2FB-709A-6A40-B82D-9073CBFCB64B}">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -986,13 +987,10 @@
         <v>26</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -1000,10 +998,10 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -1012,10 +1010,10 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -1024,10 +1022,10 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -1036,443 +1034,401 @@
         <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <f>AVERAGE(raw!D4:E4)</f>
         <v>14.934999999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f>STDEV(raw!D4:E4)</f>
         <v>2.1213203435595972E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f>C4/B4*100</f>
         <v>0.14203684925072629</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <f>raw!G4</f>
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <f>raw!H4</f>
         <v>2.4</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f>G4/F4*100</f>
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>67</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <f>raw!I4</f>
         <v>22</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <f>raw!J4</f>
         <v>17</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <f>K4/J4*100</f>
         <v>77.272727272727266</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>3</v>
       </c>
-      <c r="N4">
-        <f>raw!K4</f>
-        <v>12</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
+      <c r="N4" s="2">
         <f>raw!M4</f>
         <v>14</v>
       </c>
-      <c r="S4">
+      <c r="O4" s="2">
         <f>raw!N4</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="T4">
-        <f>S4/R4*100</f>
+      <c r="P4" s="2">
+        <f>O4/N4*100</f>
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <f>AVERAGE(raw!D5:E5)</f>
         <v>9.6000000000000014</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f>STDEV(raw!D5:E5)</f>
         <v>1.0040916292848974</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <f t="shared" ref="D5:D11" si="0">C5/B5*100</f>
         <v>10.459287805051012</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <f>raw!G5</f>
         <v>11</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f>raw!H5</f>
         <v>1.7</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f>G5/F5*100</f>
         <v>15.454545454545453</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <f>raw!I5</f>
         <v>20</v>
       </c>
-      <c r="M5">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="R5">
+      <c r="N5" s="2">
         <f>raw!M5</f>
         <v>9</v>
       </c>
-      <c r="S5">
+      <c r="O5" s="2">
         <f>raw!N5</f>
         <v>2.8</v>
       </c>
-      <c r="T5">
-        <f>S5/R5*100</f>
+      <c r="P5" s="2">
+        <f>O5/N5*100</f>
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <f>AVERAGE(raw!D6:E6)</f>
         <v>20.115000000000002</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f>STDEV(raw!D6:E6)</f>
         <v>2.7930717856868625</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>13.885517204508387</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <f>raw!G6</f>
         <v>21</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f>raw!H6</f>
         <v>10.1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f>G6/F6*100</f>
         <v>48.095238095238088</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <f>raw!I6</f>
         <v>15</v>
       </c>
-      <c r="M6">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
         <v>1</v>
       </c>
-      <c r="R6">
+      <c r="N6" s="2">
         <f>raw!M6</f>
         <v>15</v>
       </c>
-      <c r="S6">
+      <c r="O6" s="2">
         <f>raw!N6</f>
         <v>8.4</v>
       </c>
-      <c r="T6">
-        <f>S6/R6*100</f>
+      <c r="P6" s="2">
+        <f>O6/N6*100</f>
         <v>56.000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <f>AVERAGE(raw!D7:E7)</f>
         <v>2.16</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <f>STDEV(raw!D7:E7)</f>
         <v>0.12727922061357869</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>5.8925565098879016</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f>raw!G7</f>
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f>raw!H7</f>
         <v>0.9</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f>G7/F7*100</f>
         <v>30</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>3</v>
       </c>
-      <c r="R7">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
         <f>raw!M7</f>
         <v>2</v>
       </c>
-      <c r="S7">
+      <c r="O7" s="2">
         <f>raw!N7</f>
         <v>0.7</v>
       </c>
-      <c r="T7">
-        <f>S7/R7*100</f>
+      <c r="P7" s="2">
+        <f>O7/N7*100</f>
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <f>AVERAGE(raw!D8:E8)</f>
         <v>183.5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f>STDEV(raw!D8:E8)</f>
         <v>24.748737341529164</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>13.487050322359217</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f>raw!G8</f>
         <v>325</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f>raw!H8</f>
         <v>330.9</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f>G8/F8*100</f>
         <v>101.81538461538462</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>4</v>
       </c>
-      <c r="R8">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
         <f>raw!M8</f>
         <v>348</v>
       </c>
-      <c r="S8">
+      <c r="O8" s="2">
         <f>raw!N8</f>
         <v>297</v>
       </c>
-      <c r="T8">
-        <f>S8/R8*100</f>
+      <c r="P8" s="2">
+        <f>O8/N8*100</f>
         <v>85.34482758620689</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <f>AVERAGE(raw!D9:E9)</f>
         <v>53</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <f>STDEV(raw!D9:E9)</f>
         <v>4.2426406871192848</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>8.0049824285269526</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <f>AVERAGE(raw!D10:E10)</f>
         <v>15</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <f>STDEV(raw!D10:E10)</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>9.4280904158206358</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <f>raw!G10</f>
         <v>19</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <f>raw!H10</f>
         <v>16.100000000000001</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <f>G10/F10*100</f>
         <v>84.736842105263165</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>4</v>
       </c>
-      <c r="R10">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
         <f>raw!M10</f>
         <v>16</v>
       </c>
-      <c r="S10">
+      <c r="O10" s="2">
         <f>raw!N10</f>
         <v>2.9</v>
       </c>
-      <c r="T10">
-        <f>S10/R10*100</f>
+      <c r="P10" s="2">
+        <f>O10/N10*100</f>
         <v>18.125</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <f>AVERAGE(raw!D11:E11)</f>
         <v>90</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <f>STDEV(raw!D11:E11)</f>
         <v>7.0710678118654755</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>7.8567420131838626</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <f>raw!G11</f>
         <v>211</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f>raw!H11</f>
         <v>110</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f>G11/F11*100</f>
         <v>52.132701421800952</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>4</v>
       </c>
-      <c r="R11">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2">
         <f>raw!M11</f>
         <v>93</v>
       </c>
-      <c r="S11">
+      <c r="O11" s="2">
         <f>raw!N11</f>
         <v>35.799999999999997</v>
       </c>
-      <c r="T11">
-        <f>S11/R11*100</f>
+      <c r="P11" s="2">
+        <f>O11/N11*100</f>
         <v>38.494623655913976</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
